--- a/Benchmark/OEQ_Benchmark.xlsx
+++ b/Benchmark/OEQ_Benchmark.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="2510">
   <si>
     <t>Image</t>
   </si>
@@ -2770,7 +2770,7 @@
     <t>Describe the color of the bird in the picture.</t>
   </si>
   <si>
-    <t>Describe the primary color of the trees in the picture.</t>
+    <t>Describe the main color of the trees in the picture.</t>
   </si>
   <si>
     <t>Describe the color of the bird's wings in the picture.</t>
@@ -4999,7 +4999,7 @@
     <t>How many scissors are there in the picture?</t>
   </si>
   <si>
-    <t>How many cushions are depicted in the picture?</t>
+    <t>How many pillows are depicted in the picture?</t>
   </si>
   <si>
     <t>How many real books are there in the picture?</t>
@@ -6136,7 +6136,7 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Most of the butterflies in the picture are colored blue and light blue. There is a black and white butterfly in the picture. It is positioned near the center-left side among the flowers.</t>
+    <t>Most of the butterflies in the picture are colored blue, light blue and black. There is a black and white butterfly in the picture. It is positioned near the center-left side among the flowers.</t>
   </si>
   <si>
     <t>Blue, pink and orange(or yellow).</t>
@@ -7523,6 +7523,9 @@
   </si>
   <si>
     <t>The kettle.</t>
+  </si>
+  <si>
+    <t>4 and 5 both ok</t>
   </si>
   <si>
     <t>23 and 25 both ok</t>
@@ -19580,8 +19583,8 @@
       <c r="B1061" t="s">
         <v>1597</v>
       </c>
-      <c r="C1061">
-        <v>4</v>
+      <c r="C1061" t="s">
+        <v>2500</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -19999,7 +20002,7 @@
         <v>1623</v>
       </c>
       <c r="C1099" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1100" spans="1:3">
@@ -20010,7 +20013,7 @@
         <v>1624</v>
       </c>
       <c r="C1100" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -20142,7 +20145,7 @@
         <v>1636</v>
       </c>
       <c r="C1112" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
@@ -20175,7 +20178,7 @@
         <v>1639</v>
       </c>
       <c r="C1115" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -20186,7 +20189,7 @@
         <v>1640</v>
       </c>
       <c r="C1116" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -20263,7 +20266,7 @@
         <v>1646</v>
       </c>
       <c r="C1123" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -20329,7 +20332,7 @@
         <v>1651</v>
       </c>
       <c r="C1129" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -20549,7 +20552,7 @@
         <v>1670</v>
       </c>
       <c r="C1149" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
@@ -20648,7 +20651,7 @@
         <v>1678</v>
       </c>
       <c r="C1158" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1159" spans="1:3">
@@ -20813,7 +20816,7 @@
         <v>1692</v>
       </c>
       <c r="C1173" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
